--- a/hw1.xlsx
+++ b/hw1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Dividend</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>TOTAL PRIMES</t>
+  </si>
+  <si>
+    <t>Discussion Question</t>
+  </si>
+  <si>
+    <t>If I want to find the prime numbers between 2 and 100 using excel, I would use the same code that I did above but slightly modift the dividend and divisor. I will have to do this manually because I cannot simply drag the cell down.</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -961,7 +967,9 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -975,7 +983,9 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
